--- a/awards.xlsx
+++ b/awards.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="146" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="161" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="manbooker" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <r>
       <t xml:space="preserve">Paul Beatty (US) </t>
@@ -392,6 +392,12 @@
     <t>Link</t>
   </si>
   <si>
+    <t>Award Amount</t>
+  </si>
+  <si>
+    <t>Award Amount – Shortlist/Finalists</t>
+  </si>
+  <si>
     <t>2016 National Book Awards</t>
   </si>
   <si>
@@ -401,7 +407,7 @@
     <t>a book must be written by an American citizen and published by an American publisher between December 1 of the previous year and November 30 of the current year</t>
   </si>
   <si>
-    <t>http://www.nationalbook.org/</t>
+    <t>http://www.nationalbook.org/index.html</t>
   </si>
   <si>
     <t>Poetry</t>
@@ -419,6 +425,12 @@
     <t>any novel originally written in English and published in the UK in the year of the prize, regardless of the nationality of their author</t>
   </si>
   <si>
+    <t>£50,000</t>
+  </si>
+  <si>
+    <t>£2,500</t>
+  </si>
+  <si>
     <t>2016 National Book Critics Circle Awards</t>
   </si>
   <si>
@@ -435,16 +447,94 @@
   </si>
   <si>
     <t>Criticism</t>
+  </si>
+  <si>
+    <t>2016 Pulitzer Prizes</t>
+  </si>
+  <si>
+    <t>Books first published in the United States during 2016. All entries must be made available for purchase by the general public in either hardcover or bound paperback book form. In the Fiction, Biography and General Nonfiction categories, authors must be United States citizens.  In the History category, the author may be of any nationality but the subject of the book must be U.S. history. In the Poetry category, the award is for original verse by an American author. </t>
+  </si>
+  <si>
+    <t>http://www.pulitzer.org/page/books-submission-guidelines-and-requirements</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Biography or Autobiography</t>
+  </si>
+  <si>
+    <t>General Nonfiction</t>
+  </si>
+  <si>
+    <t>2016 L.A. Times Book Prizes</t>
+  </si>
+  <si>
+    <t>Eligibility for the prizes requires a book to have its first United States publication between January 1 and December 31 of the prize year. This American publication must be in English; however, English does not have to be the original language of the work. Authors may be of any nationality. </t>
+  </si>
+  <si>
+    <t>http://events.latimes.com/festivalofbooks/book-prizes-eligibility-judging/</t>
+  </si>
+  <si>
+    <t>$500</t>
+  </si>
+  <si>
+    <t>Current Interest</t>
+  </si>
+  <si>
+    <t>Graphic Novel/Comics</t>
+  </si>
+  <si>
+    <t>Mystery/Thriller</t>
+  </si>
+  <si>
+    <t>Science and Technology</t>
+  </si>
+  <si>
+    <t>First Fiction</t>
+  </si>
+  <si>
+    <t>Young Adult Literature</t>
+  </si>
+  <si>
+    <t>2016 Man Booker International Prize</t>
+  </si>
+  <si>
+    <t>a single work of fiction, translated into English and published in the UK by a registered imprint. Both novels and collections of short stories are eligible.</t>
+  </si>
+  <si>
+    <t>http://themanbookerprize.com/international</t>
+  </si>
+  <si>
+    <t>£2,000</t>
+  </si>
+  <si>
+    <t>2016 Bailey's Women's Prize for Fiction</t>
+  </si>
+  <si>
+    <t>Any woman writing in English – whatever her nationality, country of residence, age or subject matter – is eligible. Novels must be published in the United Kingdom between 1 April in the year the Prize calls for entries, and 31 March the following year, when the Prize is announced.</t>
+  </si>
+  <si>
+    <t>£30,000</t>
+  </si>
+  <si>
+    <t>2016 Neustadt Prize for International Literature</t>
+  </si>
+  <si>
+    <t> $50,000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
     <numFmt numFmtId="166" formatCode="MMM\ D&quot;, &quot;YYYY"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="169" formatCode="@"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -503,10 +593,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -557,7 +646,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -602,8 +691,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -612,6 +705,18 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -633,7 +738,7 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A40" activeCellId="0" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -753,7 +858,7 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -857,16 +962,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.1122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.984693877551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3622448979592"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.5918367346939"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.9642857142857"/>
@@ -897,13 +1002,19 @@
       <c r="G1" s="7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" s="8" t="n">
         <v>42625</v>
@@ -915,18 +1026,24 @@
         <v>42690</v>
       </c>
       <c r="F2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="B3" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C3" s="8" t="n">
         <v>42626</v>
@@ -938,16 +1055,22 @@
         <v>42690</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="11" t="s">
-        <v>45</v>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I3" s="11" t="n">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="8" t="n">
         <v>42627</v>
@@ -959,16 +1082,22 @@
         <v>42690</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I4" s="11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C5" s="8" t="n">
         <v>42628</v>
@@ -980,16 +1109,22 @@
         <v>42690</v>
       </c>
       <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="11" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="11" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6" s="8" t="n">
         <v>42578</v>
@@ -1001,18 +1136,24 @@
         <v>42668</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="H6" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="40.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12" t="s">
-        <v>51</v>
+      <c r="A7" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>42736</v>
@@ -1020,19 +1161,19 @@
       <c r="E7" s="9" t="n">
         <v>42795</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>52</v>
+      <c r="F7" s="14" t="s">
+        <v>56</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12" t="s">
-        <v>51</v>
+      <c r="A8" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>42736</v>
@@ -1042,15 +1183,15 @@
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12" t="s">
-        <v>51</v>
+      <c r="A9" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>42736</v>
@@ -1060,15 +1201,15 @@
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12" t="s">
-        <v>51</v>
+      <c r="A10" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>42736</v>
@@ -1078,15 +1219,15 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12" t="s">
-        <v>51</v>
+      <c r="A11" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>42736</v>
@@ -1096,15 +1237,15 @@
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12" t="s">
-        <v>51</v>
+      <c r="A12" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>42736</v>
@@ -1114,16 +1255,403 @@
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="11" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E18" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E19" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E20" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E21" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E22" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E23" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E25" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="15" t="n">
+        <v>42401</v>
+      </c>
+      <c r="E27" s="15" t="n">
+        <v>42461</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="15" t="n">
+        <v>42430</v>
+      </c>
+      <c r="D28" s="8" t="n">
+        <v>42474</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>42506</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H28" s="0" t="s">
         <v>53</v>
       </c>
+      <c r="I28" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="8" t="n">
+        <v>42437</v>
+      </c>
+      <c r="D29" s="8" t="n">
+        <v>42496</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>42529</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="http://www.nationalbook.org/"/>
-    <hyperlink ref="G3" r:id="rId2" display="http://www.nationalbook.org/"/>
-    <hyperlink ref="G4" r:id="rId3" display="http://www.nationalbook.org/"/>
-    <hyperlink ref="G5" r:id="rId4" display="http://www.nationalbook.org/"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
